--- a/data/siRNA_bench/mutual_KIT.xlsx
+++ b/data/siRNA_bench/mutual_KIT.xlsx
@@ -604,7 +604,7 @@
         <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.53</v>
+        <v>36.84</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -616,12 +616,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RNAi_2</t>
+          <t>RNAi_1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TTATCTACTACTTCCAAGG</t>
+          <t>TATATGGCTCTTAATCTAC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['TTATCTACTACTTCCAAGG']</t>
+          <t>['TATATGGCTCTTAATCTAC']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>CCTTGGAAGTAGTAGATAA</t>
+          <t>GTAGATTAAGAGCCATATA</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -684,10 +684,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>15.53</v>
+        <v>31.58</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -699,12 +699,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RNAi_7</t>
+          <t>RNAi_9</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TCTTGTATCATCATACTAC</t>
+          <t>TCTATAACTAACAACCACT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['TCTTGTATCATCATACTAC']</t>
+          <t>['TCTATAACTAACAACCACT']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>GTAGTATGATGATACAAGA</t>
+          <t>AGTGGTTGTTAGTTATAGA</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -767,10 +767,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.26</v>
+        <v>31.58</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -782,12 +782,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RNAi_4</t>
+          <t>RNAi_2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TTAATCTCGTTAGATGAAG</t>
+          <t>TTATCTACTACTTCCAAGG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['TTAATCTCGTTAGATGAAG']</t>
+          <t>['TTATCTACTACTTCCAAGG']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -830,15 +830,15 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>['TTAA']</t>
+          <t>[('CTT', 'GAA')]</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>CTTCATCTAACGAGATTAA</t>
+          <t>CCTTGGAAGTAGTAGATAA</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -850,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q5" t="n">
-        <v>23.05</v>
+        <v>36.84</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -865,12 +865,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RNAi_9</t>
+          <t>RNAi_5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TCTATAACTAACAACCACT</t>
+          <t>TTAATTAAGCCATAAGCAG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['TCTATAACTAACAACCACT']</t>
+          <t>['TTAATTAAGCCATAAGCAG']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -913,15 +913,15 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>['TATA']</t>
+          <t>[('TTAA', 'AATT')]</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>AGTGGTTGTTAGTTATAGA</t>
+          <t>CTGCTTATGGCTTAATTAA</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>6</v>
+        <v>31.58</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -948,12 +948,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RNAi_8</t>
+          <t>RNAi_6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TGTATGAACACGGACAATT</t>
+          <t>TTCTGCATGATCTTCCTGC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['TGTATGAACACGGACAATT']</t>
+          <t>['TTCTGCATGATCTTCCTGC']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -996,15 +996,15 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>['AATT']</t>
+          <t>[('GCA', 'CGT')]</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>AATTGTCCGTGTTCATACA</t>
+          <t>GCAGGAAGATCATGCAGAA</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1016,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.05</v>
+        <v>47.37</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -1031,12 +1031,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RNAi_3</t>
+          <t>RNAi_7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TATAGATCCACTGCTGGTG</t>
+          <t>TCTTGTATCATCATACTAC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['TATAGATCCACTGCTGGTG']</t>
+          <t>['TCTTGTATCATCATACTAC']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1079,15 +1079,15 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>['TATA', 'GATC']</t>
+          <t>[('GTAT', 'CATA')]</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>CACCAGCAGTGGATCTATA</t>
+          <t>GTAGTATGATGATACAAGA</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.32</v>
+        <v>31.58</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -1114,12 +1114,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RNAi_6</t>
+          <t>RNAi_8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TTCTGCATGATCTTCCTGC</t>
+          <t>TGTATGAACACGGACAATT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['TTCTGCATGATCTTCCTGC']</t>
+          <t>['TGTATGAACACGGACAATT']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1162,15 +1162,15 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>['CATG', 'TGCA', 'GATC']</t>
+          <t>[('TGT', 'ACA')]</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.631578947368421</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>GCAGGAAGATCATGCAGAA</t>
+          <t>AATTGTCCGTGTTCATACA</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1182,10 +1182,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="Q9" t="n">
-        <v>21.79</v>
+        <v>36.84</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1197,12 +1197,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RNAi_1</t>
+          <t>RNAi_3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TATATGGCTCTTAATCTAC</t>
+          <t>TATAGATCCACTGCTGGTG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['TATATGGCTCTTAATCTAC']</t>
+          <t>['TATAGATCCACTGCTGGTG']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1245,15 +1245,15 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['ATAT', 'TATA', 'TTAA']</t>
+          <t>[('CCA', 'GGT'), ('CAC', 'GTG')]</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.631578947368421</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>GTAGATTAAGAGCCATATA</t>
+          <t>CACCAGCAGTGGATCTATA</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.53</v>
+        <v>47.37</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1280,12 +1280,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RNAi_5</t>
+          <t>RNAi_4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TTAATTAAGCCATAAGCAG</t>
+          <t>TTAATCTCGTTAGATGAAG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['TTAATTAAGCCATAAGCAG']</t>
+          <t>['TTAATCTCGTTAGATGAAG']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1328,15 +1328,15 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['AATT', 'TAATTA', 'TTAATTAA', 'TTAA']</t>
+          <t>[('TAA', 'ATT'), ('ATCT', 'TAGA')]</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.157894736842105</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>CTGCTTATGGCTTAATTAA</t>
+          <t>CTTCATCTAACGAGATTAA</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>18.79</v>
+        <v>31.58</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1411,11 +1411,11 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('AGGA', 'TCCT'), ('AAG', 'TTC')]</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.05</v>
+        <v>47.62</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1446,12 +1446,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RNAi_9</t>
+          <t>RNAi_2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GAAACGAAACCTTATGGTGTT</t>
+          <t>TGGTAGGCGCGTTTCACACTT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['GAAACGAAACCTTATGGTGTT']</t>
+          <t>['TGGTAGGCGCGTTTCACACTT']</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>AACACCATAAGGTTTCGTTTC</t>
+          <t>AAGTGTGAAACGCGCCTACCA</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1514,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.81</v>
+        <v>52.38</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1529,12 +1529,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RNAi_10</t>
+          <t>RNAi_3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TTCCAAGGTTGTTGTGACATT</t>
+          <t>TGTATACAGAAACGAAACCTT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['TTCCAAGGTTGTTGTGACATT']</t>
+          <t>['TGTATACAGAAACGAAACCTT']</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1577,15 +1577,15 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('TGTA', 'ACAT')]</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>AATGTCACAACAACCTTGGAA</t>
+          <t>AAGGTTTCGTTTCTGTATACA</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>26.81</v>
+        <v>33.33</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1612,12 +1612,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RNAi_5</t>
+          <t>RNAi_8</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CTCGTTAGATGAAGTTCACTT</t>
+          <t>AGAACTCTGAACCACTAGCTT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['CTCGTTAGATGAAGTTCACTT']</t>
+          <t>['AGAACTCTGAACCACTAGCTT']</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1660,15 +1660,15 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('AGA', 'TCT')]</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>AAGTGAACTTCATCTAACGAG</t>
+          <t>AAGCTAGTGGTTCAGAGTTCT</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1680,10 +1680,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>23.05</v>
+        <v>42.86</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('TCT', 'AGA')]</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>-2</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.05</v>
+        <v>38.1</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1778,12 +1778,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RNAi_8</t>
+          <t>RNAi_9</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AGAACTCTGAACCACTAGCTT</t>
+          <t>GAAACGAAACCTTATGGTGTT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['AGAACTCTGAACCACTAGCTT']</t>
+          <t>['GAAACGAAACCTTATGGTGTT']</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1826,15 +1826,15 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>['AGCT', 'CTAG']</t>
+          <t>[('AAC', 'TTG'), ('ACC', 'TGG')]</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>AAGCTAGTGGTTCAGAGTTCT</t>
+          <t>AACACCATAAGGTTTCGTTTC</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>20.29</v>
+        <v>38.1</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1909,11 +1909,11 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>['CATG', 'GGCC']</t>
+          <t>[('AGTCA', 'TCAGT'), ('ATG', 'TAC')]</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>29.81</v>
+        <v>52.38</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1944,12 +1944,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RNAi_2</t>
+          <t>RNAi_10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TGGTAGGCGCGTTTCACACTT</t>
+          <t>TTCCAAGGTTGTTGTGACATT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['TGGTAGGCGCGTTTCACACTT']</t>
+          <t>['TTCCAAGGTTGTTGTGACATT']</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1992,15 +1992,15 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>['CGCG', 'GCGC']</t>
+          <t>[('CAA', 'GTT'), ('TGT', 'ACA')]</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>AAGTGTGAAACGCGCCTACCA</t>
+          <t>AATGTCACAACAACCTTGGAA</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2012,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Q19" t="n">
-        <v>33.57</v>
+        <v>38.1</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -2027,12 +2027,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RNAi_7</t>
+          <t>RNAi_5</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GCACGTGTATTTGCCGGTGTT</t>
+          <t>CTCGTTAGATGAAGTTCACTT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['GCACGTGTATTTGCCGGTGTT']</t>
+          <t>['CTCGTTAGATGAAGTTCACTT']</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2075,15 +2075,15 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>['CCGG', 'ACGT', 'CACGTG']</t>
+          <t>[('AAGT', 'TTCA'), ('TGAA', 'ACTT')]</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>AACACCGGCAAATACACGTGC</t>
+          <t>AAGTGAACTTCATCTAACGAG</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2098,7 +2098,7 @@
         <v>-1</v>
       </c>
       <c r="Q20" t="n">
-        <v>37.33</v>
+        <v>38.1</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -2110,12 +2110,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RNAi_3</t>
+          <t>RNAi_7</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TGTATACAGAAACGAAACCTT</t>
+          <t>GCACGTGTATTTGCCGGTGTT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['TGTATACAGAAACGAAACCTT']</t>
+          <t>['GCACGTGTATTTGCCGGTGTT']</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2158,15 +2158,15 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>['TATA', 'GTATAC', 'TGTATACA']</t>
+          <t>[('GCA', 'CGT'), ('CAC', 'GTG')]</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>AAGGTTTCGTTTCTGTATACA</t>
+          <t>AACACCGGCAAATACACGTGC</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2178,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q21" t="n">
-        <v>18.29</v>
+        <v>52.38</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -2241,11 +2241,11 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>['AGTACT', 'GTAC']</t>
+          <t>[('AGT', 'TCA')]</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>2</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.81</v>
+        <v>47.62</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>10</v>
       </c>
       <c r="Q23" t="n">
-        <v>21.29</v>
+        <v>47.62</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>8</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.29</v>
+        <v>52.38</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>6</v>
       </c>
       <c r="Q25" t="n">
-        <v>10.76</v>
+        <v>33.33</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2525,12 +2525,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RNAi_9</t>
+          <t>RNAi_11</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ATCTCTTTCTATGTATGAGCC</t>
+          <t>TTGTAGAACTTAGAATCGACC</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['ATCTCTTTCTATGTATGAGCC']</t>
+          <t>['TTGTAGAACTTAGAATCGACC']</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>GGCTCATACATAGAAAGAGAT</t>
+          <t>GGTCGATTCTAAGTTCTACAA</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2593,10 +2593,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>19.29</v>
+        <v>38.1</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2608,12 +2608,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RNAi_10</t>
+          <t>RNAi_6</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ATTCTTGGAGGCGAGGAAAGC</t>
+          <t>TTTACAGCGACAGTCATGGCC</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['ATTCTTGGAGGCGAGGAAAGC']</t>
+          <t>['TTTACAGCGACAGTCATGGCC']</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2656,15 +2656,15 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('GAC', 'CTG')]</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>GCTTTCCTCGCCTCCAAGAAT</t>
+          <t>GGCCATGACTGTCGCTGTAAA</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2676,10 +2676,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q27" t="n">
-        <v>41.1</v>
+        <v>52.38</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2691,12 +2691,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RNAi_5</t>
+          <t>RNAi_9</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TATTTGTAGGTCAGAATCATC</t>
+          <t>ATCTCTTTCTATGTATGAGCC</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['TATTTGTAGGTCAGAATCATC']</t>
+          <t>['ATCTCTTTCTATGTATGAGCC']</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2739,15 +2739,15 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('CTC', 'GAG')]</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>GATGATTCTGACCTACAAATA</t>
+          <t>GGCTCATACATAGAAAGAGAT</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2759,10 +2759,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.05</v>
+        <v>38.1</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2774,12 +2774,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RNAi_7</t>
+          <t>RNAi_5</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TTTGAGTTCAGACATGAGGGC</t>
+          <t>TATTTGTAGGTCAGAATCATC</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['TTTGAGTTCAGACATGAGGGC']</t>
+          <t>['TATTTGTAGGTCAGAATCATC']</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2822,15 +2822,15 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>['CATG']</t>
+          <t>[('ATT', 'TAA')]</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>GCCCTCATGTCTGAACTCAAA</t>
+          <t>GATGATTCTGACCTACAAATA</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.33</v>
+        <v>33.33</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2857,12 +2857,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RNAi_11</t>
+          <t>RNAi_7</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TTGTAGAACTTAGAATCGACC</t>
+          <t>TTTGAGTTCAGACATGAGGGC</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['TTGTAGAACTTAGAATCGACC']</t>
+          <t>['TTTGAGTTCAGACATGAGGGC']</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>['TCGA']</t>
+          <t>[('TCA', 'AGT'), ('TGA', 'ACT')]</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>GGTCGATTCTAAGTTCTACAA</t>
+          <t>GCCCTCATGTCTGAACTCAAA</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2925,10 +2925,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q30" t="n">
-        <v>23.05</v>
+        <v>47.62</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2940,12 +2940,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RNAi_4</t>
+          <t>RNAi_13</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ATAGATCCACTGCTGGTGTTC</t>
+          <t>ATAACAGAGTGCCTTAAGTGC</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['ATAGATCCACTGCTGGTGTTC']</t>
+          <t>['ATAACAGAGTGCCTTAAGTGC']</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>['GATC']</t>
+          <t>[('TAA', 'ATT'), ('CTT', 'GAA')]</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>GAACACCAGCAGTGGATCTAT</t>
+          <t>GCACTTAAGGCACTCTGTTAT</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -3008,10 +3008,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q31" t="n">
-        <v>28.81</v>
+        <v>42.86</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -3023,12 +3023,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RNAi_6</t>
+          <t>RNAi_10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TTTACAGCGACAGTCATGGCC</t>
+          <t>ATTCTTGGAGGCGAGGAAAGC</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3053,7 +3053,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['TTTACAGCGACAGTCATGGCC']</t>
+          <t>['ATTCTTGGAGGCGAGGAAAGC']</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -3071,15 +3071,15 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>['CATG', 'GGCC']</t>
+          <t>[('CTT', 'GAA'), ('TTC', 'AAG')]</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>GGCCATGACTGTCGCTGTAAA</t>
+          <t>GCTTTCCTCGCCTCCAAGAAT</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>29.81</v>
+        <v>52.38</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -3106,12 +3106,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RNAi_13</t>
+          <t>RNAi_4</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ATAACAGAGTGCCTTAAGTGC</t>
+          <t>ATAGATCCACTGCTGGTGTTC</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['ATAACAGAGTGCCTTAAGTGC']</t>
+          <t>['ATAGATCCACTGCTGGTGTTC']</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -3154,15 +3154,15 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>['CTTAAG', 'TTAA']</t>
+          <t>[('CCA', 'GGT'), ('CAC', 'GTG')]</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>GCACTTAAGGCACTCTGTTAT</t>
+          <t>GAACACCAGCAGTGGATCTAT</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -3174,10 +3174,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.81</v>
+        <v>47.62</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -3237,11 +3237,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>['TCTAGA', 'AGCT', 'CTAG']</t>
+          <t>[('GTA', 'CAT'), ('TCT', 'AGA'), ('CTA', 'GAT'), ('GCT', 'CGA')]</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.81</v>
+        <v>47.62</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -3272,12 +3272,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RNAi_36</t>
+          <t>RNAi_241</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ATAAGGAAGTTGTGTTGGGTC</t>
+          <t>ATAACAGCCTAATCTCGTCGC</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['ATAAGGAAGTTGTGTTGGGTC']</t>
+          <t>['ATAACAGCCTAATCTCGTCGC']</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>GACCCAACACAACTTCCTTAT</t>
+          <t>GCGACGAGATTAGGCTGTTAT</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3340,10 +3340,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q35" t="n">
-        <v>39.1</v>
+        <v>47.62</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -3359,12 +3359,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RNAi_51</t>
+          <t>RNAi_1446</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ATGTTTCAGTGAGACAGTAGC</t>
+          <t>TAACAGCCTAATCTCGTCGCC</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['ATGTTTCAGTGAGACAGTAGC']</t>
+          <t>['TAACAGCCTAATCTCGTCGCC']</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>GCTACTGTCTCACTGAAACAT</t>
+          <t>GGCGACGAGATTAGGCTGTTA</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3427,10 +3427,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q36" t="n">
-        <v>31.57</v>
+        <v>52.38</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -3439,19 +3439,19 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>3`UTR</t>
+          <t>CDS</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RNAi_55</t>
+          <t>RNAi_577</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CCTGCGAAGGAGGCTAAACCT</t>
+          <t>TATTCTCATTCGTTTCATCCA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['CCTGCGAAGGAGGCTAAACCT']</t>
+          <t>['TATTCTCATTCGTTTCATCCA']</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>AGGTTTAGCCTCCTTCGCAGG</t>
+          <t>TGGATGAAACGAATGAGAATA</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q37" t="n">
-        <v>34.57</v>
+        <v>33.33</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3526,19 +3526,19 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>3`UTR</t>
+          <t>CDS</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RNAi_71</t>
+          <t>RNAi_787</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AGGACCCTCTTGGACTCAGGG</t>
+          <t>TGTAGAACTTAGAATCGACCG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['AGGACCCTCTTGGACTCAGGG']</t>
+          <t>['TGTAGAACTTAGAATCGACCG']</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>CCCTGAGTCCAAGAGGGTCCT</t>
+          <t>CGGTCGATTCTAAGTTCTACA</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3601,10 +3601,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q38" t="n">
-        <v>39.33</v>
+        <v>42.86</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3613,19 +3613,19 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>3`UTR</t>
+          <t>CDS</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RNAi_13</t>
+          <t>RNAi_859</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TCCTGGATGGATGGATGGTGG</t>
+          <t>TCATAAGGAAGTTGTGTTGGG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['TCCTGGATGGATGGATGGTGG']</t>
+          <t>['TCATAAGGAAGTTGTGTTGGG']</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>CCACCATCCATCCATCCAGGA</t>
+          <t>CCCAACACAACTTCCTTATGA</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3688,10 +3688,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q39" t="n">
-        <v>49.62</v>
+        <v>42.86</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3707,12 +3707,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RNAi_55</t>
+          <t>RNAi_1347</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AGATGGTTGAGAAGAGCCTGT</t>
+          <t>ATATTGGGCAGTGAGGAAGGG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['AGATGGTTGAGAAGAGCCTGT']</t>
+          <t>['ATATTGGGCAGTGAGGAAGGG']</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>ACAGGCTCTTCTCAACCATCT</t>
+          <t>CCCTTCCTCACTGCCCAATAT</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3775,10 +3775,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.1</v>
+        <v>52.38</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3787,19 +3787,19 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>3`UTR</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RNAi_57</t>
+          <t>RNAi_15</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CCTCAAGTCCTTGGGAAGAGG</t>
+          <t>ATATACAAGTGCTGGCTAGGG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['CCTCAAGTCCTTGGGAAGAGG']</t>
+          <t>['ATATACAAGTGCTGGCTAGGG']</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>CCTCTTCCCAAGGACTTGAGG</t>
+          <t>CCCTAGCCAGCACTTGTATAT</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3862,10 +3862,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q41" t="n">
-        <v>38.33</v>
+        <v>47.62</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3874,19 +3874,19 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>3`UTR</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RNAi_57</t>
+          <t>RNAi_42</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ATTATGGAAGGTCTAAGGAAC</t>
+          <t>GAAAGACAGGATTGCAGTGGG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['ATTATGGAAGGTCTAAGGAAC']</t>
+          <t>['GAAAGACAGGATTGCAGTGGG']</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3937,7 +3937,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>GTTCCTTAGACCTTCCATAAT</t>
+          <t>CCCACTGCAATCCTGTCTTTC</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q42" t="n">
-        <v>30.57</v>
+        <v>52.38</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3968,12 +3968,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RNAi_7</t>
+          <t>RNAi_1222</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GGACACAGACACAACAGGCAC</t>
+          <t>TTTGTAGGTCAGAATCATCAC</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3998,7 +3998,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['GGACACAGACACAACAGGCAC']</t>
+          <t>['TTTGTAGGTCAGAATCATCAC']</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>GTGCCTGTTGTGTCTGTGTCC</t>
+          <t>GTGATGATTCTGACCTACAAA</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -4036,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q43" t="n">
-        <v>30.81</v>
+        <v>38.1</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -4055,12 +4055,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RNAi_61</t>
+          <t>RNAi_1300</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GAAAGGTGCGAGAGCATAGAA</t>
+          <t>CATTCTGCTTATTCTCATTCG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['GAAAGGTGCGAGAGCATAGAA']</t>
+          <t>['CATTCTGCTTATTCTCATTCG']</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>TTCTATGCTCTCGCACCTTTC</t>
+          <t>CGAATGAGAATAAGCAGAATG</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -4123,10 +4123,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q44" t="n">
-        <v>40.1</v>
+        <v>38.1</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -4135,19 +4135,19 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>3`UTR</t>
+          <t>CDS</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RNAi_3</t>
+          <t>RNAi_2</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AATAAACCTCAAGTCCTTGGG</t>
+          <t>ATAATTGGTCACTTCTGGGTC</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['AATAAACCTCAAGTCCTTGGG']</t>
+          <t>['ATAATTGGTCACTTCTGGGTC']</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>CCCAAGGACTTGAGGTTTATT</t>
+          <t>GACCCAGAAGTGACCAATTAT</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -4210,10 +4210,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q45" t="n">
-        <v>24.05</v>
+        <v>42.86</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -4225,12 +4225,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RNAi_8</t>
+          <t>RNAi_5</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ATTTATCAGTGAAGGTTCTGT</t>
+          <t>ATATTTCTCCTGTAGTTTAGT</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4255,7 +4255,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['ATTTATCAGTGAAGGTTCTGT']</t>
+          <t>['ATATTTCTCCTGTAGTTTAGT']</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>ACAGAACCTTCACTGATAAAT</t>
+          <t>ACTAAACTACAGGAGAAATAT</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -4293,10 +4293,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.81</v>
+        <v>28.57</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -4308,12 +4308,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RNAi_2</t>
+          <t>RNAi_3</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ATAATTGGTCACTTCTGGGTC</t>
+          <t>AATAAACCTCAAGTCCTTGGG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4338,7 +4338,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['ATAATTGGTCACTTCTGGGTC']</t>
+          <t>['AATAAACCTCAAGTCCTTGGG']</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -4356,15 +4356,15 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>['AATT']</t>
+          <t>[('CAAG', 'GTTC')]</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>GACCCAGAAGTGACCAATTAT</t>
+          <t>CCCAAGGACTTGAGGTTTATT</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -4376,10 +4376,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q47" t="n">
-        <v>27.81</v>
+        <v>42.86</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -4391,12 +4391,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RNAi_5</t>
+          <t>RNAi_9</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ATATTTCTCCTGTAGTTTAGT</t>
+          <t>ATATTACTTTCATTCTCAGAC</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['ATATTTCTCCTGTAGTTTAGT']</t>
+          <t>['ATATTACTTTCATTCTCAGAC']</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4439,15 +4439,15 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>['ATAT']</t>
+          <t>[('TCT', 'AGA')]</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>ACTAAACTACAGGAGAAATAT</t>
+          <t>GTCTGAGAATGAAAGTAATAT</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -4459,10 +4459,10 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q48" t="n">
-        <v>17.29</v>
+        <v>28.57</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -4474,12 +4474,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RNAi_10</t>
+          <t>RNAi_4</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TTTAATCTCGTTAGATGAAGT</t>
+          <t>TTTATTGTGCACGTCACTGTG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['TTTAATCTCGTTAGATGAAGT']</t>
+          <t>['TTTATTGTGCACGTCACTGTG']</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>['TTAA']</t>
+          <t>[('CAC', 'GTG'), ('GTG', 'CAC')]</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>ACTTCATCTAACGAGATTAAA</t>
+          <t>CACAGTGACGTGCACAATAAA</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4542,10 +4542,10 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q49" t="n">
-        <v>21.05</v>
+        <v>42.86</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -4557,12 +4557,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RNAi_9</t>
+          <t>RNAi_10</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ATATTACTTTCATTCTCAGAC</t>
+          <t>TTTAATCTCGTTAGATGAAGT</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['ATATTACTTTCATTCTCAGAC']</t>
+          <t>['TTTAATCTCGTTAGATGAAGT']</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>['ATAT']</t>
+          <t>[('TAA', 'ATT'), ('ATCT', 'TAGA')]</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -4613,7 +4613,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>GTCTGAGAATGAAAGTAATAT</t>
+          <t>ACTTCATCTAACGAGATTAAA</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4628,7 +4628,7 @@
         <v>3</v>
       </c>
       <c r="Q50" t="n">
-        <v>9.76</v>
+        <v>28.57</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>['AATT']</t>
+          <t>[('TCAC', 'AGTG'), ('TGA', 'ACT')]</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -4711,7 +4711,7 @@
         <v>2</v>
       </c>
       <c r="Q51" t="n">
-        <v>26.81</v>
+        <v>38.1</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>['CATG']</t>
+          <t>[('TTAT', 'AATA'), ('CAT', 'GTA')]</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -4794,7 +4794,7 @@
         <v>2</v>
       </c>
       <c r="Q52" t="n">
-        <v>17.29</v>
+        <v>28.57</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4806,12 +4806,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RNAi_4</t>
+          <t>RNAi_1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TTTATTGTGCACGTCACTGTG</t>
+          <t>ATAAATGGAATTGCTTAAGCC</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['TTTATTGTGCACGTCACTGTG']</t>
+          <t>['ATAAATGGAATTGCTTAAGCC']</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4854,15 +4854,15 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>['ACGT', 'TGCA', 'GTGCAC']</t>
+          <t>[('TAA', 'ATT'), ('AAT', 'TTA'), ('GCTT', 'CGAA')]</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>CACAGTGACGTGCACAATAAA</t>
+          <t>GGCTTAAGCAATTCCATTTAT</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4874,10 +4874,10 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q53" t="n">
-        <v>27.81</v>
+        <v>33.33</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4889,12 +4889,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RNAi_1</t>
+          <t>RNAi_8</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ATAAATGGAATTGCTTAAGCC</t>
+          <t>ATTTATCAGTGAAGGTTCTGT</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['ATAAATGGAATTGCTTAAGCC']</t>
+          <t>['ATTTATCAGTGAAGGTTCTGT']</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4937,15 +4937,15 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>['AATT', 'GCTTAAGC', 'CTTAAG', 'TTAA']</t>
+          <t>[('CAG', 'GTC'), ('TCA', 'AGT'), ('GAA', 'CTT')]</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.047619047619048</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>GGCTTAAGCAATTCCATTTAT</t>
+          <t>ACAGAACCTTCACTGATAAAT</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4957,10 +4957,10 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q54" t="n">
-        <v>22.05</v>
+        <v>33.33</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
